--- a/1.Domain/App.Domain/Excels/User.xlsx
+++ b/1.Domain/App.Domain/Excels/User.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK12\TTSS\fishprevention\1.Domain\App.Domain\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCB1C6A-A68F-4C6E-9336-AA449FD30295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FE4170-F963-409C-8D67-A0136E030F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
   <si>
     <t>Column Name</t>
   </si>
@@ -116,16 +116,45 @@
   </si>
   <si>
     <t>รหัสผ่าน</t>
+  </si>
+  <si>
+    <t>isAdmin</t>
+  </si>
+  <si>
+    <t>isWorker</t>
+  </si>
+  <si>
+    <t>isResearcher</t>
+  </si>
+  <si>
+    <t>bool?</t>
+  </si>
+  <si>
+    <t>CheckBox</t>
+  </si>
+  <si>
+    <t>เป็น Admin</t>
+  </si>
+  <si>
+    <t>เป็น เจ้าหน้าที่ภาคสนาม</t>
+  </si>
+  <si>
+    <t>เป็น นักวิจัย</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -136,7 +165,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -159,13 +188,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -709,6 +754,84 @@
       </c>
       <c r="M7" s="1"/>
     </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="2">
+        <v>5</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1</v>
+      </c>
+      <c r="L8" s="2">
+        <v>4</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="2">
+        <v>5</v>
+      </c>
+      <c r="K9" s="2">
+        <v>2</v>
+      </c>
+      <c r="L9" s="2">
+        <v>4</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="2">
+        <v>5</v>
+      </c>
+      <c r="K10" s="2">
+        <v>3</v>
+      </c>
+      <c r="L10" s="2">
+        <v>4</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
